--- a/前端.xlsx
+++ b/前端.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>html和css</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,11 +422,239 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>javascript</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>javascript的变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undefined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始数据类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>arr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>function</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引用类型数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数字类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字符串类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>布尔类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空值（用于释放引用类型变量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变量仅声明未赋值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简化DOM操作的js函数库（不算是框架）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$==jquery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选中页面上的一个元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").html()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input元素的value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").val()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-----</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").html("内容")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").val("值")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通元素的html内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通元素的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器"）.attr("属性")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器"）.attr("属性","属性值")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input元素的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器"）.prop("属性","属性值")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器"）.prop("属性")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给元素绑定点击事件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器"）.click(function(e){})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般事件的绑定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假如绑定事件时元素不存在，元素是后添加的元素，必须使用事件代理on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器"）.事件类型(function(e){})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("父元素选择器").on("事件类型","元素选择器",function(e){})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>javascript and jquery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery的ajax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jquery的class操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给指定的元素添加一个class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除指定的元素的一个class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").addClass("class");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换指定元素的class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").toggleClass("class");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断指定元素是否还有某个class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").hasClass("class");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>常配合css3中的转换属性用于页面的的动画效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datatables的使用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,12 +709,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -496,6 +721,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,18 +1022,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="14.625" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+    <col min="4" max="4" width="31" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -892,7 +1121,7 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
@@ -903,7 +1132,7 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="4"/>
       <c r="E11" t="s">
         <v>37</v>
       </c>
@@ -912,7 +1141,7 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="4"/>
       <c r="E12" t="s">
         <v>39</v>
       </c>
@@ -921,7 +1150,7 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" s="4"/>
       <c r="E13" t="s">
         <v>40</v>
       </c>
@@ -930,7 +1159,7 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="4"/>
       <c r="E14" t="s">
         <v>41</v>
       </c>
@@ -947,7 +1176,7 @@
       <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
@@ -958,7 +1187,7 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="4"/>
       <c r="E19" t="s">
         <v>50</v>
       </c>
@@ -967,7 +1196,7 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="4"/>
       <c r="E20" t="s">
         <v>46</v>
       </c>
@@ -976,7 +1205,7 @@
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="4"/>
       <c r="E21" t="s">
         <v>47</v>
       </c>
@@ -985,7 +1214,7 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="4"/>
       <c r="E22" t="s">
         <v>48</v>
       </c>
@@ -994,7 +1223,7 @@
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="2"/>
+      <c r="D23" s="4"/>
       <c r="E23" t="s">
         <v>52</v>
       </c>
@@ -1003,7 +1232,7 @@
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="2"/>
+      <c r="D24" s="4"/>
       <c r="E24" t="s">
         <v>53</v>
       </c>
@@ -1012,7 +1241,7 @@
       <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="2"/>
+      <c r="D25" s="4"/>
       <c r="E25" t="s">
         <v>54</v>
       </c>
@@ -1038,31 +1267,31 @@
       <c r="C29" t="s">
         <v>68</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6">
       <c r="C30" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6">
       <c r="C31" t="s">
         <v>69</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" customHeight="1"/>
     <row r="33" spans="2:4">
@@ -1165,7 +1394,7 @@
       <c r="C47" t="s">
         <v>75</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="3" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1177,7 +1406,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:5">
       <c r="C49" t="s">
         <v>74</v>
       </c>
@@ -1185,7 +1414,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:5">
       <c r="C50" t="s">
         <v>85</v>
       </c>
@@ -1193,7 +1422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:5">
       <c r="C51" t="s">
         <v>87</v>
       </c>
@@ -1201,26 +1430,281 @@
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:5">
       <c r="A53">
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="B54">
         <v>2.1</v>
       </c>
       <c r="C54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="C55" t="s">
         <v>90</v>
       </c>
+      <c r="D55" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="C57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="C58" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="4"/>
+      <c r="E58" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="C59" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="4"/>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="C61" t="s">
+        <v>96</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="C62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="C63" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C65" t="s">
+        <v>108</v>
+      </c>
+      <c r="D65" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="C66" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="C67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D67" t="s">
+        <v>112</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="C68" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" t="s">
+        <v>113</v>
+      </c>
+      <c r="E68" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="C69" t="s">
+        <v>114</v>
+      </c>
+      <c r="D69" t="s">
+        <v>115</v>
+      </c>
+      <c r="E69" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="C70" t="s">
+        <v>122</v>
+      </c>
+      <c r="D70" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="C71" t="s">
+        <v>125</v>
+      </c>
+      <c r="D71" t="s">
+        <v>127</v>
+      </c>
+      <c r="E71" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="C72" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="C73" t="s">
+        <v>130</v>
+      </c>
+      <c r="D73" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="C75" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="D76" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C78" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="C79" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="C80" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="B82">
+        <v>2.4</v>
+      </c>
+      <c r="C82" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="C83" t="s">
+        <v>139</v>
+      </c>
+      <c r="D83" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="C84" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="C85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="C86" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>3</v>
+      </c>
+      <c r="B88" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="B89">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D18:D25"/>
+    <mergeCell ref="D55:D59"/>
+    <mergeCell ref="D61:D63"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/前端.xlsx
+++ b/前端.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="169">
   <si>
     <t>html和css</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -622,30 +622,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>给指定的元素添加一个class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>删除指定的元素的一个class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$("元素选择器").addClass("class");</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>切换指定元素的class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$("元素选择器").toggleClass("class");</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>判断指定元素是否还有某个class</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>$("元素选择器").hasClass("class");</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -655,6 +639,106 @@
   </si>
   <si>
     <t>datatables的使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>………</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用django的模板引擎生成带数据表格，然后用插件格式化，优点：简单省事儿，也可以使用插件的分页、搜索、排序功能；缺点：数据不够灵活，每次调整数据都得刷新页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用jquery的ajax函数请求过来的数据渲染表格，优点：可以异步刷新数据，也可以使用插件的分页、搜索、排序功能；缺点：必须掌握ajax的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接开启插件的后端数据模式，按照插件的接口编写后端程序，分页和搜索都是采用后端处理，适用于数据量大的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插件的各种属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断元素是否还有某个class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换元素的class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给元素添加一个class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除元素的一个class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充jQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$.each()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").append()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").slideDown()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").slideUp()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").slideToggle()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").fadeIn()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").fadeOut()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").fadeToggle()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").appendTo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").remove()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将选中的元素由隐藏从上边滑下来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将选中的元素显示滑动最后隐藏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交替执行上边两个动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淡出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -662,6 +746,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.00_ "/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -709,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,11 +809,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,16 +1115,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:F108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="6.625" customWidth="1"/>
     <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" customWidth="1"/>
-    <col min="4" max="4" width="31" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1121,7 +1214,7 @@
       <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
@@ -1132,7 +1225,7 @@
       <c r="C11" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="4"/>
+      <c r="D11" s="6"/>
       <c r="E11" t="s">
         <v>37</v>
       </c>
@@ -1141,7 +1234,7 @@
       <c r="C12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="4"/>
+      <c r="D12" s="6"/>
       <c r="E12" t="s">
         <v>39</v>
       </c>
@@ -1150,7 +1243,7 @@
       <c r="C13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4"/>
+      <c r="D13" s="6"/>
       <c r="E13" t="s">
         <v>40</v>
       </c>
@@ -1159,24 +1252,30 @@
       <c r="C14" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="4"/>
+      <c r="D14" s="6"/>
       <c r="E14" t="s">
         <v>41</v>
       </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="3" t="s">
         <v>42</v>
       </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:6">
       <c r="C18" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="6" t="s">
         <v>43</v>
       </c>
       <c r="E18" t="s">
@@ -1187,7 +1286,7 @@
       <c r="C19" t="s">
         <v>26</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="6"/>
       <c r="E19" t="s">
         <v>50</v>
       </c>
@@ -1196,7 +1295,7 @@
       <c r="C20" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="4"/>
+      <c r="D20" s="6"/>
       <c r="E20" t="s">
         <v>46</v>
       </c>
@@ -1205,7 +1304,7 @@
       <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="6"/>
       <c r="E21" t="s">
         <v>47</v>
       </c>
@@ -1214,7 +1313,7 @@
       <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D22" s="4"/>
+      <c r="D22" s="6"/>
       <c r="E22" t="s">
         <v>48</v>
       </c>
@@ -1223,7 +1322,7 @@
       <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="6"/>
       <c r="E23" t="s">
         <v>52</v>
       </c>
@@ -1232,7 +1331,7 @@
       <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="6"/>
       <c r="E24" t="s">
         <v>53</v>
       </c>
@@ -1241,7 +1340,7 @@
       <c r="C25" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="4"/>
+      <c r="D25" s="6"/>
       <c r="E25" t="s">
         <v>54</v>
       </c>
@@ -1450,7 +1549,7 @@
       <c r="C55" t="s">
         <v>90</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="6" t="s">
         <v>95</v>
       </c>
       <c r="E55" t="s">
@@ -1461,7 +1560,7 @@
       <c r="C56" t="s">
         <v>91</v>
       </c>
-      <c r="D56" s="4"/>
+      <c r="D56" s="6"/>
       <c r="E56" t="s">
         <v>101</v>
       </c>
@@ -1470,7 +1569,7 @@
       <c r="C57" t="s">
         <v>92</v>
       </c>
-      <c r="D57" s="4"/>
+      <c r="D57" s="6"/>
       <c r="E57" t="s">
         <v>102</v>
       </c>
@@ -1479,7 +1578,7 @@
       <c r="C58" t="s">
         <v>93</v>
       </c>
-      <c r="D58" s="4"/>
+      <c r="D58" s="6"/>
       <c r="E58" t="s">
         <v>103</v>
       </c>
@@ -1488,16 +1587,19 @@
       <c r="C59" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="4"/>
+      <c r="D59" s="6"/>
       <c r="E59" t="s">
         <v>104</v>
       </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="D60" s="3"/>
     </row>
     <row r="61" spans="1:5">
       <c r="C61" t="s">
         <v>96</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="6" t="s">
         <v>99</v>
       </c>
       <c r="E61" t="s">
@@ -1508,7 +1610,7 @@
       <c r="C62" t="s">
         <v>97</v>
       </c>
-      <c r="D62" s="4"/>
+      <c r="D62" s="6"/>
       <c r="E62" t="s">
         <v>106</v>
       </c>
@@ -1517,7 +1619,7 @@
       <c r="C63" t="s">
         <v>98</v>
       </c>
-      <c r="D63" s="4"/>
+      <c r="D63" s="6"/>
       <c r="E63" t="s">
         <v>107</v>
       </c>
@@ -1551,7 +1653,7 @@
       <c r="D67" t="s">
         <v>112</v>
       </c>
-      <c r="E67" s="5" t="s">
+      <c r="E67" s="4" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1643,68 +1745,212 @@
         <v>137</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="B82">
+    <row r="81" spans="1:4">
+      <c r="C81" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="B83">
         <v>2.4</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C83" t="s">
         <v>138</v>
       </c>
-      <c r="D82" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="C83" t="s">
-        <v>139</v>
-      </c>
       <c r="D83" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="C84" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="D84" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="C85" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D85" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="C86" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="C87" t="s">
+        <v>149</v>
+      </c>
+      <c r="D87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>3</v>
+      </c>
+      <c r="B89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="81" customHeight="1">
+      <c r="B90">
+        <v>3.1</v>
+      </c>
+      <c r="C90" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>3</v>
-      </c>
-      <c r="B88" t="s">
+      <c r="D90" s="5"/>
+    </row>
+    <row r="91" spans="1:4" ht="81.75" customHeight="1">
+      <c r="B91">
+        <v>3.2</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D91" s="5"/>
+    </row>
+    <row r="92" spans="1:4" ht="72" customHeight="1">
+      <c r="B92">
+        <v>3.3</v>
+      </c>
+      <c r="C92" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="B89">
-        <v>1.1000000000000001</v>
+      <c r="D92" s="5"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="B94">
+        <v>3.4</v>
+      </c>
+      <c r="C94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>4</v>
+      </c>
+      <c r="B96" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C97" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98">
+        <v>4.2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>156</v>
+      </c>
+      <c r="D98" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99">
+        <v>4.3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>157</v>
+      </c>
+      <c r="D99" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C100" t="s">
+        <v>158</v>
+      </c>
+      <c r="D100" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102">
+        <v>4.5</v>
+      </c>
+      <c r="C102" t="s">
+        <v>159</v>
+      </c>
+      <c r="D102" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4">
+      <c r="B103">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C103" t="s">
+        <v>160</v>
+      </c>
+      <c r="D103" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="B104">
+        <v>4.7</v>
+      </c>
+      <c r="C104" t="s">
+        <v>161</v>
+      </c>
+      <c r="D104" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="B106">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C106" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="B107" s="7">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4">
+      <c r="B108" s="7">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C108" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="C92:D92"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D18:D25"/>
     <mergeCell ref="D55:D59"/>
     <mergeCell ref="D61:D63"/>
+    <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/前端.xlsx
+++ b/前端.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="172">
   <si>
     <t>html和css</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,10 +71,6 @@
   </si>
   <si>
     <t>div、h1—h6、p、header、nav、aside、section、footer、ul、ol、li、dl、dt………</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a、b、i、s、u、span、strong、input、textarea………</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -741,13 +737,29 @@
     <t>淡出</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>a、b、i、s、u、span、strong、input、button、textarea………</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    background-position</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定背景图片的位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>$("元素选择器").removeClass("class");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -796,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,14 +824,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1115,9 +1130,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F108"/>
+  <dimension ref="A1:F109"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -1166,7 +1183,7 @@
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1177,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1188,7 +1205,7 @@
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1199,7 +1216,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1207,54 +1224,54 @@
         <v>1.2</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="E13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1262,10 +1279,10 @@
     </row>
     <row r="16" spans="1:5">
       <c r="C16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:6">
@@ -1273,81 +1290,81 @@
     </row>
     <row r="18" spans="2:6">
       <c r="C18" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="D19" s="8"/>
       <c r="E19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="C20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="E20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="C21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D21" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="E21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="D22" s="8"/>
       <c r="E22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="D23" s="8"/>
       <c r="E23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="C24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="C25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="D25" s="8"/>
       <c r="E25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="C26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="1"/>
     </row>
@@ -1359,35 +1376,35 @@
         <v>1.3</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6">
       <c r="C30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6">
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -1398,55 +1415,55 @@
         <v>1.4</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="C35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D35" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:4">
       <c r="C36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="2:4">
       <c r="C38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="2:4">
       <c r="C39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="2:4">
       <c r="C40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -1454,335 +1471,335 @@
         <v>1.5</v>
       </c>
       <c r="C42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="2:4">
       <c r="C43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="2:4">
       <c r="C44" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="2:4">
       <c r="C45" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:4">
       <c r="C46" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="2:4">
       <c r="C47" t="s">
-        <v>75</v>
-      </c>
-      <c r="D47" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="48" spans="2:4">
       <c r="C48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="C49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="C50" t="s">
-        <v>85</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="C51" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
         <v>87</v>
       </c>
-      <c r="D51" t="s">
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="B55">
+        <v>2.1</v>
+      </c>
+      <c r="C55" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53">
-        <v>2</v>
-      </c>
-      <c r="B53" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="B54">
-        <v>2.1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="E55" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="C56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D56" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>94</v>
+      </c>
       <c r="E56" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="C57" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="D57" s="8"/>
       <c r="E57" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="C58" t="s">
-        <v>93</v>
-      </c>
-      <c r="D58" s="6"/>
+        <v>91</v>
+      </c>
+      <c r="D58" s="8"/>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="C59" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="D59" s="8"/>
       <c r="E59" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="D60" s="3"/>
+      <c r="C60" t="s">
+        <v>93</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="C61" t="s">
-        <v>96</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E61" t="s">
-        <v>105</v>
-      </c>
+      <c r="D61" s="3"/>
     </row>
     <row r="62" spans="1:5">
       <c r="C62" t="s">
-        <v>97</v>
-      </c>
-      <c r="D62" s="6"/>
+        <v>95</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="E62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="C63" t="s">
-        <v>98</v>
-      </c>
-      <c r="D63" s="6"/>
+        <v>96</v>
+      </c>
+      <c r="D63" s="8"/>
       <c r="E63" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="C64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" s="8"/>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C66" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D66" t="s">
         <v>108</v>
-      </c>
-      <c r="D65" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="C66" t="s">
-        <v>110</v>
-      </c>
-      <c r="D66" t="s">
-        <v>116</v>
-      </c>
-      <c r="E66" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="67" spans="2:5">
       <c r="C67" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D67" t="s">
-        <v>112</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="E67" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="68" spans="2:5">
       <c r="C68" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
-        <v>113</v>
-      </c>
-      <c r="E68" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="69" spans="2:5">
       <c r="C69" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="70" spans="2:5">
       <c r="C70" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71" spans="2:5">
       <c r="C71" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D71" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="72" spans="2:5">
       <c r="C72" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>126</v>
+      </c>
+      <c r="E72" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="C73" t="s">
+        <v>127</v>
+      </c>
+      <c r="D73" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="C74" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="C76" t="s">
         <v>130</v>
       </c>
-      <c r="D73" t="s">
+    </row>
+    <row r="77" spans="2:5">
+      <c r="D77" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="75" spans="2:5">
-      <c r="C75" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="D76" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78">
+    <row r="79" spans="2:5">
+      <c r="B79">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C78" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
       <c r="C79" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="2:5">
       <c r="C80" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="C81" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="B83">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="C82" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="B84">
         <v>2.4</v>
       </c>
-      <c r="C83" t="s">
-        <v>138</v>
-      </c>
-      <c r="D83" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
       <c r="C84" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D84" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="C85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D85" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="C86" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D86" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -1790,167 +1807,175 @@
         <v>149</v>
       </c>
       <c r="D87" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="C88" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
         <v>3</v>
       </c>
-      <c r="B89" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="81" customHeight="1">
-      <c r="B90">
+      <c r="B90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="81" customHeight="1">
+      <c r="B91">
         <v>3.1</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C91" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D91" s="7"/>
+    </row>
+    <row r="92" spans="1:4" ht="81.75" customHeight="1">
+      <c r="B92">
+        <v>3.2</v>
+      </c>
+      <c r="C92" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="D90" s="5"/>
-    </row>
-    <row r="91" spans="1:4" ht="81.75" customHeight="1">
-      <c r="B91">
-        <v>3.2</v>
-      </c>
-      <c r="C91" s="5" t="s">
+      <c r="D92" s="7"/>
+    </row>
+    <row r="93" spans="1:4" ht="72" customHeight="1">
+      <c r="B93">
+        <v>3.3</v>
+      </c>
+      <c r="C93" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="D91" s="5"/>
-    </row>
-    <row r="92" spans="1:4" ht="72" customHeight="1">
-      <c r="B92">
-        <v>3.3</v>
-      </c>
-      <c r="C92" s="5" t="s">
+      <c r="D93" s="7"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="B95">
+        <v>3.4</v>
+      </c>
+      <c r="C95" t="s">
         <v>147</v>
       </c>
-      <c r="D92" s="5"/>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="B94">
-        <v>3.4</v>
-      </c>
-      <c r="C94" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
         <v>4</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="B98">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="C98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
-      <c r="B97">
+    <row r="99" spans="1:4">
+      <c r="B99">
+        <v>4.2</v>
+      </c>
+      <c r="C99" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="B100">
+        <v>4.3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="B101">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C101" t="s">
+        <v>157</v>
+      </c>
+      <c r="D101" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="B103">
+        <v>4.5</v>
+      </c>
+      <c r="C103" t="s">
+        <v>158</v>
+      </c>
+      <c r="D103" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="B104">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C104" t="s">
+        <v>159</v>
+      </c>
+      <c r="D104" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="B105">
+        <v>4.7</v>
+      </c>
+      <c r="C105" t="s">
+        <v>160</v>
+      </c>
+      <c r="D105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="B107">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C107" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="B108" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C97" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="98" spans="2:4">
-      <c r="B98">
-        <v>4.2</v>
-      </c>
-      <c r="C98" t="s">
-        <v>156</v>
-      </c>
-      <c r="D98" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="99" spans="2:4">
-      <c r="B99">
-        <v>4.3</v>
-      </c>
-      <c r="C99" t="s">
-        <v>157</v>
-      </c>
-      <c r="D99" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="100" spans="2:4">
-      <c r="B100">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="C100" t="s">
-        <v>158</v>
-      </c>
-      <c r="D100" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102" spans="2:4">
-      <c r="B102">
-        <v>4.5</v>
-      </c>
-      <c r="C102" t="s">
-        <v>159</v>
-      </c>
-      <c r="D102" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="103" spans="2:4">
-      <c r="B103">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C103" t="s">
-        <v>160</v>
-      </c>
-      <c r="D103" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="104" spans="2:4">
-      <c r="B104">
-        <v>4.7</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="C108" t="s">
         <v>161</v>
       </c>
-      <c r="D104" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="2:4">
-      <c r="B106">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="C106" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="2:4">
-      <c r="B107" s="7">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="C107" t="s">
+    </row>
+    <row r="109" spans="1:4">
+      <c r="B109" s="5">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="C109" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="108" spans="2:4">
-      <c r="B108" s="7">
-        <v>4.1100000000000003</v>
-      </c>
-      <c r="C108" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C91:D91"/>
     <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C93:D93"/>
     <mergeCell ref="D10:D14"/>
     <mergeCell ref="D18:D25"/>
-    <mergeCell ref="D55:D59"/>
-    <mergeCell ref="D61:D63"/>
-    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="D56:D60"/>
+    <mergeCell ref="D62:D64"/>
+    <mergeCell ref="C91:D91"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
